--- a/me/1.es6/1.Introduce-es6.xlsx
+++ b/me/1.es6/1.Introduce-es6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F45E40D-E6F5-4F95-9BC4-41CD3D71DEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C9CBC-0E4C-4D62-9057-4F18352A63F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="I265" sqref="I265"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
